--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianshuliu/Desktop/TDS_Group-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C06E7E-D8CB-D342-A1FA-0913FD88D083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C702747-D945-B749-9242-52388FC36334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A5B76808-E3CD-8B44-9A91-0A5F5F721284}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="14280" windowHeight="16100" xr2:uid="{A5B76808-E3CD-8B44-9A91-0A5F5F721284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="156">
   <si>
     <t>Field ID</t>
   </si>
@@ -487,6 +487,21 @@
   </si>
   <si>
     <t>total sugar</t>
+  </si>
+  <si>
+    <t>baked bean intake</t>
+  </si>
+  <si>
+    <t>broad bean intake</t>
+  </si>
+  <si>
+    <t>grean bean intake</t>
+  </si>
+  <si>
+    <t>milk intake</t>
+  </si>
+  <si>
+    <t>yesterday diet</t>
   </si>
 </sst>
 </file>
@@ -949,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72E7357-851C-F245-B6EF-5DAC09F3CF3A}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2590,7 @@
         <v>100391</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1458</v>
       </c>
@@ -2589,7 +2604,7 @@
         <v>100373</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1468</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>100393</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1478</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>100394</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1488</v>
       </c>
@@ -2631,7 +2646,7 @@
         <v>100373</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1518</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>100398</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1538</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>100400</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1548</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>100401</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>100008</v>
       </c>
@@ -2682,6 +2697,62 @@
       </c>
       <c r="C136" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>104000</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137">
+        <v>100017</v>
+      </c>
+      <c r="E137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>104110</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138">
+        <v>100017</v>
+      </c>
+      <c r="E138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>104120</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139">
+        <v>100017</v>
+      </c>
+      <c r="E139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>100520</v>
+      </c>
+      <c r="B140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140">
+        <v>100006</v>
+      </c>
+      <c r="E140" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
